--- a/outputs/Scenario_LTE.xlsx
+++ b/outputs/Scenario_LTE.xlsx
@@ -3748,16 +3748,16 @@
         <v>2041</v>
       </c>
       <c r="B93">
-        <v>17480.04209188966</v>
+        <v>17479.771674888</v>
       </c>
       <c r="C93">
-        <v>23069.3080086705</v>
+        <v>23066.12163988487</v>
       </c>
       <c r="D93">
-        <v>2510.257404461283</v>
+        <v>2510.016722084962</v>
       </c>
       <c r="E93">
-        <v>12966.75742192146</v>
+        <v>12965.94182477319</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3765,16 +3765,16 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>17380.02060405694</v>
+        <v>17379.47977006928</v>
       </c>
       <c r="C94">
-        <v>22275.3600625069</v>
+        <v>22268.98732512023</v>
       </c>
       <c r="D94">
-        <v>2448.672113243267</v>
+        <v>2448.190748504567</v>
       </c>
       <c r="E94">
-        <v>12748.68465362166</v>
+        <v>12747.05345937237</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3782,16 +3782,16 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>17262.76959196373</v>
+        <v>17261.9583409744</v>
       </c>
       <c r="C95">
-        <v>21426.68558635817</v>
+        <v>21417.12648018586</v>
       </c>
       <c r="D95">
-        <v>2382.330606204167</v>
+        <v>2381.608559089145</v>
       </c>
       <c r="E95">
-        <v>12510.87826773797</v>
+        <v>12508.43147634041</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3799,16 +3799,16 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>17128.13524032183</v>
+        <v>17127.05357234651</v>
       </c>
       <c r="C96">
-        <v>20518.20015691598</v>
+        <v>20505.45468214263</v>
       </c>
       <c r="D96">
-        <v>2310.862565428054</v>
+        <v>2309.899835950655</v>
       </c>
       <c r="E96">
-        <v>12252.16316475837</v>
+        <v>12248.90077625979</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3816,16 +3816,16 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>16975.76304210794</v>
+        <v>16974.41095713096</v>
       </c>
       <c r="C97">
-        <v>19544.13129277498</v>
+        <v>19528.19944921599</v>
       </c>
       <c r="D97">
-        <v>2233.838662558234</v>
+        <v>2232.635250704512</v>
       </c>
       <c r="E97">
-        <v>11971.12338809276</v>
+        <v>11967.04540244591</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3833,16 +3833,16 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>16804.93523021883</v>
+        <v>16803.31272824018</v>
       </c>
       <c r="C98">
-        <v>18497.88822446722</v>
+        <v>18478.7700121226</v>
       </c>
       <c r="D98">
-        <v>2150.75322800524</v>
+        <v>2149.309133775196</v>
       </c>
       <c r="E98">
-        <v>11665.99985757082</v>
+        <v>11661.1062747757</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3850,16 +3850,16 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>16614.47425438898</v>
+        <v>16612.58133536167</v>
       </c>
       <c r="C99">
-        <v>17371.90207141852</v>
+        <v>17349.59748973444</v>
       </c>
       <c r="D99">
-        <v>2061.008075604578</v>
+        <v>2059.32329895638</v>
       </c>
       <c r="E99">
-        <v>11334.61171804563</v>
+        <v>11328.90253796048</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3867,16 +3867,16 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>16402.70673360246</v>
+        <v>16400.54339768315</v>
       </c>
       <c r="C100">
-        <v>16157.43189160065</v>
+        <v>16131.94094242318</v>
       </c>
       <c r="D100">
-        <v>1963.896883787172</v>
+        <v>1961.971424860261</v>
       </c>
       <c r="E100">
-        <v>10974.29778360383</v>
+        <v>10967.77300670118</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3884,16 +3884,16 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>16167.46271859093</v>
+        <v>16165.02896562296</v>
       </c>
       <c r="C101">
-        <v>14844.32518700635</v>
+        <v>14815.64786848942</v>
       </c>
       <c r="D101">
-        <v>1858.588074149071</v>
+        <v>1856.421932804006</v>
       </c>
       <c r="E101">
-        <v>10581.86414687503</v>
+        <v>10574.52377268235</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3901,16 +3901,16 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>15906.09099263168</v>
+        <v>15903.38682261504</v>
       </c>
       <c r="C102">
-        <v>13420.71622158263</v>
+        <v>13388.85253372624</v>
       </c>
       <c r="D102">
-        <v>1744.104046955867</v>
+        <v>1741.697223192647</v>
       </c>
       <c r="E102">
-        <v>10153.52556823536</v>
+        <v>10145.36959675264</v>
       </c>
     </row>
   </sheetData>
@@ -6320,25 +6320,25 @@
         <v>2041</v>
       </c>
       <c r="B93">
-        <v>11127.20464500822</v>
+        <v>11126.81092104984</v>
       </c>
       <c r="C93">
-        <v>6672.572321810577</v>
+        <v>6672.253880418147</v>
       </c>
       <c r="D93">
-        <v>3296.3817226049</v>
+        <v>3296.114722952729</v>
       </c>
       <c r="E93">
-        <v>1203.846147402043</v>
+        <v>1203.693700734521</v>
       </c>
       <c r="F93">
-        <v>11000.52145626752</v>
+        <v>10999.47843021058</v>
       </c>
       <c r="G93">
-        <v>2547.735183625699</v>
+        <v>2547.464084422862</v>
       </c>
       <c r="H93">
-        <v>2027.827729887826</v>
+        <v>2027.617809322924</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -6346,25 +6346,25 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>11011.69545846407</v>
+        <v>11010.90801057013</v>
       </c>
       <c r="C94">
-        <v>6584.042762957934</v>
+        <v>6583.40588019152</v>
       </c>
       <c r="D94">
-        <v>3226.986493122696</v>
+        <v>3226.452493833821</v>
       </c>
       <c r="E94">
-        <v>1165.650422277964</v>
+        <v>1165.345528951754</v>
       </c>
       <c r="F94">
-        <v>10733.37758871083</v>
+        <v>10731.29153665737</v>
       </c>
       <c r="G94">
-        <v>2478.955211154</v>
+        <v>2478.413012764032</v>
       </c>
       <c r="H94">
-        <v>1974.453515764858</v>
+        <v>1974.033674647218</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -6372,25 +6372,25 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>10882.71347315866</v>
+        <v>10881.53230130634</v>
       </c>
       <c r="C95">
-        <v>6486.503200533029</v>
+        <v>6485.547876374186</v>
       </c>
       <c r="D95">
-        <v>3151.900154978204</v>
+        <v>3151.099156037158</v>
       </c>
       <c r="E95">
-        <v>1124.755209731782</v>
+        <v>1124.29786973805</v>
       </c>
       <c r="F95">
-        <v>10445.52315726271</v>
+        <v>10442.39407915229</v>
       </c>
       <c r="G95">
-        <v>2405.044769059729</v>
+        <v>2404.231471466925</v>
       </c>
       <c r="H95">
-        <v>1917.061996383749</v>
+        <v>1916.432234701207</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -6398,25 +6398,25 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>10739.7784962012</v>
+        <v>10738.20360041331</v>
       </c>
       <c r="C96">
-        <v>6379.523628253528</v>
+        <v>6378.249862720703</v>
       </c>
       <c r="D96">
-        <v>3070.721051029052</v>
+        <v>3069.653052451302</v>
       </c>
       <c r="E96">
-        <v>1080.919045053372</v>
+        <v>1080.309258400951</v>
       </c>
       <c r="F96">
-        <v>10135.35552749136</v>
+        <v>10131.18342338442</v>
       </c>
       <c r="G96">
-        <v>2325.581734807715</v>
+        <v>2324.49733802778</v>
       </c>
       <c r="H96">
-        <v>1855.327293683922</v>
+        <v>1854.48761144864</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -6424,25 +6424,25 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>10582.24943943626</v>
+        <v>10580.28081968999</v>
       </c>
       <c r="C97">
-        <v>6262.565241683267</v>
+        <v>6260.973034758012</v>
       </c>
       <c r="D97">
-        <v>2982.977370805589</v>
+        <v>2981.642372575668</v>
       </c>
       <c r="E97">
-        <v>1033.866626550903</v>
+        <v>1033.10439323096</v>
       </c>
       <c r="F97">
-        <v>9801.015217520106</v>
+        <v>9795.800087356227</v>
       </c>
       <c r="G97">
-        <v>2240.080082524302</v>
+        <v>2238.72458654153</v>
       </c>
       <c r="H97">
-        <v>1788.873542711779</v>
+        <v>1787.823939911596</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -6450,25 +6450,25 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>10409.22743726533</v>
+        <v>10406.86509356069</v>
       </c>
       <c r="C98">
-        <v>6134.924795336796</v>
+        <v>6133.014147019108</v>
       </c>
       <c r="D98">
-        <v>2888.10293043646</v>
+        <v>2886.500932554366</v>
       </c>
       <c r="E98">
-        <v>983.281607492429</v>
+        <v>982.3669275049651</v>
       </c>
       <c r="F98">
-        <v>9440.309601899369</v>
+        <v>9434.051445678542</v>
       </c>
       <c r="G98">
-        <v>2147.973092809515</v>
+        <v>2146.346497623905</v>
       </c>
       <c r="H98">
-        <v>1717.261353225969</v>
+        <v>1716.001829860885</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6476,25 +6476,25 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>10219.49186310396</v>
+        <v>10216.73579537251</v>
       </c>
       <c r="C99">
-        <v>5995.69529019561</v>
+        <v>5993.466200430144</v>
       </c>
       <c r="D99">
-        <v>2785.416494124747</v>
+        <v>2783.547496544074</v>
       </c>
       <c r="E99">
-        <v>928.7984144673657</v>
+        <v>927.7312877858842</v>
       </c>
       <c r="F99">
-        <v>9050.642161677179</v>
+        <v>9043.340979218121</v>
       </c>
       <c r="G99">
-        <v>2048.596628401055</v>
+        <v>2046.69893396549</v>
       </c>
       <c r="H99">
-        <v>1639.974565374507</v>
+        <v>1638.505121408035</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6502,25 +6502,25 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>10011.46591951537</v>
+        <v>10008.31612798522</v>
       </c>
       <c r="C100">
-        <v>5843.741079742683</v>
+        <v>5841.193548713932</v>
       </c>
       <c r="D100">
-        <v>2674.103801841104</v>
+        <v>2671.967804716542</v>
       </c>
       <c r="E100">
-        <v>869.9928417874205</v>
+        <v>868.7732685002424</v>
       </c>
       <c r="F100">
-        <v>8628.944644344154</v>
+        <v>8620.60043625115</v>
       </c>
       <c r="G100">
-        <v>1941.171894511284</v>
+        <v>1939.003100982826</v>
       </c>
       <c r="H100">
-        <v>1556.406831034565</v>
+        <v>1554.727466588326</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6528,25 +6528,25 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>9783.197489420423</v>
+        <v>9779.653973863455</v>
       </c>
       <c r="C101">
-        <v>5677.679446032827</v>
+        <v>5674.813473556296</v>
       </c>
       <c r="D101">
-        <v>2553.199221405921</v>
+        <v>2550.79622458278</v>
       </c>
       <c r="E101">
-        <v>806.3707196158751</v>
+        <v>804.9986996346795</v>
       </c>
       <c r="F101">
-        <v>8171.603020030452</v>
+        <v>8162.215785699216</v>
       </c>
       <c r="G101">
-        <v>1824.785800599639</v>
+        <v>1822.345907821225</v>
       </c>
       <c r="H101">
-        <v>1465.846476772237</v>
+        <v>1463.95719172461</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6554,25 +6554,25 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>9532.343669033951</v>
+        <v>9528.406429450173</v>
       </c>
       <c r="C102">
-        <v>5495.861957903558</v>
+        <v>5492.677543979248</v>
       </c>
       <c r="D102">
-        <v>2421.564061771405</v>
+        <v>2418.894065249686</v>
       </c>
       <c r="E102">
-        <v>737.3537443415972</v>
+        <v>735.8292776663835</v>
       </c>
       <c r="F102">
-        <v>7674.367817603368</v>
+        <v>7663.937557033897</v>
       </c>
       <c r="G102">
-        <v>1698.36683449384</v>
+        <v>1695.655842465469</v>
       </c>
       <c r="H102">
-        <v>1367.457967453753</v>
+        <v>1365.358761804739</v>
       </c>
     </row>
   </sheetData>
@@ -10420,25 +10420,25 @@
         <v>2041</v>
       </c>
       <c r="B93">
-        <v>11127.20464500822</v>
+        <v>11126.81092104984</v>
       </c>
       <c r="C93">
-        <v>6672.572321810577</v>
+        <v>6672.253880418147</v>
       </c>
       <c r="D93">
-        <v>1830.153124991031</v>
+        <v>1830.004886622748</v>
       </c>
       <c r="E93">
-        <v>1173.412738181019</v>
+        <v>1173.264145387871</v>
       </c>
       <c r="F93">
-        <v>6452.109677715292</v>
+        <v>6451.497914123638</v>
       </c>
       <c r="G93">
-        <v>1222.168843203609</v>
+        <v>1222.038794758521</v>
       </c>
       <c r="H93">
-        <v>2932.420443031485</v>
+        <v>2932.11687910105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -10446,25 +10446,25 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>11011.69545846407</v>
+        <v>11010.90801057013</v>
       </c>
       <c r="C94">
-        <v>6584.042762957934</v>
+        <v>6583.40588019152</v>
       </c>
       <c r="D94">
-        <v>1791.624851634399</v>
+        <v>1791.328374906423</v>
       </c>
       <c r="E94">
-        <v>1136.182606655178</v>
+        <v>1135.885421077491</v>
       </c>
       <c r="F94">
-        <v>6295.422420655964</v>
+        <v>6294.198893508102</v>
       </c>
       <c r="G94">
-        <v>1189.174543037888</v>
+        <v>1188.914446155248</v>
       </c>
       <c r="H94">
-        <v>2855.236550969023</v>
+        <v>2854.629423125741</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -10472,25 +10472,25 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>10882.71347315866</v>
+        <v>10881.53230130634</v>
       </c>
       <c r="C95">
-        <v>6486.503200533029</v>
+        <v>6485.547876374186</v>
       </c>
       <c r="D95">
-        <v>1749.936871308297</v>
+        <v>1749.492156212039</v>
       </c>
       <c r="E95">
-        <v>1096.321231149788</v>
+        <v>1095.875452778953</v>
       </c>
       <c r="F95">
-        <v>6126.587845831195</v>
+        <v>6124.752555091681</v>
       </c>
       <c r="G95">
-        <v>1153.719115764449</v>
+        <v>1153.328970436722</v>
       </c>
       <c r="H95">
-        <v>2772.243275845445</v>
+        <v>2771.332584071728</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -10498,25 +10498,25 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>10739.7784962012</v>
+        <v>10738.20360041331</v>
       </c>
       <c r="C96">
-        <v>6379.523628253528</v>
+        <v>6378.249862720703</v>
       </c>
       <c r="D96">
-        <v>1704.866183724485</v>
+        <v>1704.273230268534</v>
       </c>
       <c r="E96">
-        <v>1053.593251218422</v>
+        <v>1052.998880063048</v>
       </c>
       <c r="F96">
-        <v>5944.665963880631</v>
+        <v>5942.218909584906</v>
       </c>
       <c r="G96">
-        <v>1115.600065843796</v>
+        <v>1115.079872078516</v>
       </c>
       <c r="H96">
-        <v>2682.969368810225</v>
+        <v>2681.755113123661</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -10524,25 +10524,25 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>10582.24943943626</v>
+        <v>10580.28081968999</v>
       </c>
       <c r="C97">
-        <v>6262.565241683267</v>
+        <v>6260.973034758012</v>
       </c>
       <c r="D97">
-        <v>1656.150839425013</v>
+        <v>1655.409647600779</v>
       </c>
       <c r="E97">
-        <v>1007.730324836864</v>
+        <v>1006.987360888342</v>
       </c>
       <c r="F97">
-        <v>5748.566137323157</v>
+        <v>5745.507319435779</v>
       </c>
       <c r="G97">
-        <v>1074.584242796401</v>
+        <v>1073.934000586033</v>
       </c>
       <c r="H97">
-        <v>2586.87129549035</v>
+        <v>2585.35347587335</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -10550,25 +10550,25 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>10409.22743726533</v>
+        <v>10406.86509356069</v>
       </c>
       <c r="C98">
-        <v>6134.924795336796</v>
+        <v>6133.014147019108</v>
       </c>
       <c r="D98">
-        <v>1603.476492782257</v>
+        <v>1602.587062589741</v>
       </c>
       <c r="E98">
-        <v>958.4241025654896</v>
+        <v>957.53254582382</v>
       </c>
       <c r="F98">
-        <v>5537.00233077044</v>
+        <v>5533.331749291408</v>
       </c>
       <c r="G98">
-        <v>1030.399786815976</v>
+        <v>1029.619496160521</v>
       </c>
       <c r="H98">
-        <v>2483.313658259476</v>
+        <v>2481.492274712041</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -10576,25 +10576,25 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>10219.49186310396</v>
+        <v>10216.73579537251</v>
       </c>
       <c r="C99">
-        <v>5995.69529019561</v>
+        <v>5993.466200430144</v>
       </c>
       <c r="D99">
-        <v>1546.464921269974</v>
+        <v>1545.42725268341</v>
       </c>
       <c r="E99">
-        <v>905.3182527437734</v>
+        <v>904.2781031831295</v>
       </c>
       <c r="F99">
-        <v>5308.45161413912</v>
+        <v>5304.16926896211</v>
       </c>
       <c r="G99">
-        <v>982.728105972401</v>
+        <v>981.8177668492553</v>
       </c>
       <c r="H99">
-        <v>2371.550043761314</v>
+        <v>2369.425096230682</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -10602,25 +10602,25 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>10011.46591951537</v>
+        <v>10008.31612798522</v>
       </c>
       <c r="C100">
-        <v>5843.741079742683</v>
+        <v>5841.193548713932</v>
       </c>
       <c r="D100">
-        <v>1484.664047227664</v>
+        <v>1483.478140332937</v>
       </c>
       <c r="E100">
-        <v>847.9992936661624</v>
+        <v>846.8105513726323</v>
       </c>
       <c r="F100">
-        <v>5061.114372584746</v>
+        <v>5056.220264064184</v>
       </c>
       <c r="G100">
-        <v>931.1956062081688</v>
+        <v>930.1552186926773</v>
       </c>
       <c r="H100">
-        <v>2250.703618325645</v>
+        <v>2248.27510698769</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -10628,25 +10628,25 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>9783.197489420423</v>
+        <v>9779.653973863455</v>
       </c>
       <c r="C101">
-        <v>5677.679446032827</v>
+        <v>5674.813473556296</v>
       </c>
       <c r="D101">
-        <v>1417.537751085505</v>
+        <v>1416.20360579673</v>
       </c>
       <c r="E101">
-        <v>785.9855481827304</v>
+        <v>784.6482130702261</v>
       </c>
       <c r="F101">
-        <v>4792.870877766121</v>
+        <v>4787.365005547578</v>
       </c>
       <c r="G101">
-        <v>875.3642707243316</v>
+        <v>874.1938347411494</v>
       </c>
       <c r="H101">
-        <v>2119.745238452956</v>
+        <v>2117.013163131804</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -10654,25 +10654,25 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>9532.343669033951</v>
+        <v>9528.406429450173</v>
       </c>
       <c r="C102">
-        <v>5495.861957903558</v>
+        <v>5492.677543979248</v>
       </c>
       <c r="D102">
-        <v>1344.453830885442</v>
+        <v>1342.971447202621</v>
       </c>
       <c r="E102">
-        <v>718.7133322834377</v>
+        <v>717.2274043519585</v>
       </c>
       <c r="F102">
-        <v>4501.228697489963</v>
+        <v>4495.111061573438</v>
       </c>
       <c r="G102">
-        <v>814.7200866044411</v>
+        <v>813.4196021535677</v>
       </c>
       <c r="H102">
-        <v>1977.466645536743</v>
+        <v>1974.431006232394</v>
       </c>
     </row>
   </sheetData>
@@ -13108,25 +13108,25 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>10591.86226646792</v>
+        <v>10591.86219907911</v>
       </c>
       <c r="C94">
-        <v>9493.118831368778</v>
+        <v>9493.118785200222</v>
       </c>
       <c r="D94">
-        <v>2616.596597672497</v>
+        <v>2616.5960605292</v>
       </c>
       <c r="E94">
-        <v>1793.629634845936</v>
+        <v>1793.62805438543</v>
       </c>
       <c r="F94">
-        <v>8138.842482553157</v>
+        <v>8138.842373999903</v>
       </c>
       <c r="G94">
-        <v>2495.236282944675</v>
+        <v>2495.236235690672</v>
       </c>
       <c r="H94">
-        <v>3780.109639741939</v>
+        <v>3780.10954455677</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -13134,25 +13134,25 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>10494.1661345281</v>
+        <v>10494.16585448364</v>
       </c>
       <c r="C95">
-        <v>9413.435614064752</v>
+        <v>9413.43539305895</v>
       </c>
       <c r="D95">
-        <v>2558.040245122491</v>
+        <v>2558.038064016263</v>
       </c>
       <c r="E95">
-        <v>1745.158889139028</v>
+        <v>1745.153125406882</v>
       </c>
       <c r="F95">
-        <v>7982.105671403456</v>
+        <v>7982.104885896695</v>
       </c>
       <c r="G95">
-        <v>2467.412081246198</v>
+        <v>2467.411867046508</v>
       </c>
       <c r="H95">
-        <v>3684.784714440541</v>
+        <v>3684.783988179956</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -13160,25 +13160,25 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>10397.65824363566</v>
+        <v>10397.65752667671</v>
       </c>
       <c r="C96">
-        <v>9327.576038505365</v>
+        <v>9327.575410082845</v>
       </c>
       <c r="D96">
-        <v>2500.476189698105</v>
+        <v>2500.470690200791</v>
       </c>
       <c r="E96">
-        <v>1697.282387055958</v>
+        <v>1697.269008439334</v>
       </c>
       <c r="F96">
-        <v>7822.918995512068</v>
+        <v>7822.916046734342</v>
       </c>
       <c r="G96">
-        <v>2437.949071511575</v>
+        <v>2437.948484954572</v>
       </c>
       <c r="H96">
-        <v>3595.565966887188</v>
+        <v>3595.56314548869</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -13186,25 +13186,25 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>10302.2269570425</v>
+        <v>10302.22550110541</v>
       </c>
       <c r="C97">
-        <v>9235.942696084207</v>
+        <v>9235.941308129784</v>
       </c>
       <c r="D97">
-        <v>2443.998936795787</v>
+        <v>2443.987892310974</v>
       </c>
       <c r="E97">
-        <v>1650.024739837943</v>
+        <v>1649.99962966052</v>
       </c>
       <c r="F97">
-        <v>7663.49601914373</v>
+        <v>7663.487985272637</v>
       </c>
       <c r="G97">
-        <v>2406.955862447788</v>
+        <v>2406.954603073593</v>
       </c>
       <c r="H97">
-        <v>3511.346388565665</v>
+        <v>3511.338505805302</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -13212,25 +13212,25 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>10207.73984008911</v>
+        <v>10207.73726754751</v>
       </c>
       <c r="C98">
-        <v>9138.944749105494</v>
+        <v>9138.942117939601</v>
       </c>
       <c r="D98">
-        <v>2388.663427200438</v>
+        <v>2388.644084231539</v>
       </c>
       <c r="E98">
-        <v>1603.371789236683</v>
+        <v>1603.330268974996</v>
       </c>
       <c r="F98">
-        <v>7505.598929371567</v>
+        <v>7505.580906708415</v>
       </c>
       <c r="G98">
-        <v>2374.54020583159</v>
+        <v>2374.537871151827</v>
       </c>
       <c r="H98">
-        <v>3430.936999113823</v>
+        <v>3430.918973888585</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -13238,25 +13238,25 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>10114.04865541629</v>
+        <v>10114.04451587962</v>
       </c>
       <c r="C99">
-        <v>9036.995507324271</v>
+        <v>9036.991008282976</v>
       </c>
       <c r="D99">
-        <v>2334.484807563701</v>
+        <v>2334.453919053957</v>
       </c>
       <c r="E99">
-        <v>1557.273502572597</v>
+        <v>1557.210443123738</v>
       </c>
       <c r="F99">
-        <v>7350.404559010521</v>
+        <v>7350.369117032174</v>
       </c>
       <c r="G99">
-        <v>2340.808116438342</v>
+        <v>2340.804196641468</v>
       </c>
       <c r="H99">
-        <v>3353.084207231015</v>
+        <v>3353.04824999338</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -13264,25 +13264,25 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>10020.994061445</v>
+        <v>10020.98783486175</v>
       </c>
       <c r="C100">
-        <v>8930.509997473182</v>
+        <v>8930.502857548627</v>
       </c>
       <c r="D100">
-        <v>2281.438795012429</v>
+        <v>2281.392660452578</v>
       </c>
       <c r="E100">
-        <v>1511.646311050966</v>
+        <v>1511.556235089742</v>
       </c>
       <c r="F100">
-        <v>7198.462572224722</v>
+        <v>7198.399243737082</v>
       </c>
       <c r="G100">
-        <v>2305.8630233455</v>
+        <v>2305.85689734627</v>
       </c>
       <c r="H100">
-        <v>3276.559816174056</v>
+        <v>3276.494926555546</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -13290,25 +13290,25 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>9928.409945152602</v>
+        <v>9928.40104507483</v>
       </c>
       <c r="C101">
-        <v>8819.902489034655</v>
+        <v>8819.891781233768</v>
       </c>
       <c r="D101">
-        <v>2229.462487305615</v>
+        <v>2229.396998430289</v>
       </c>
       <c r="E101">
-        <v>1466.375039613557</v>
+        <v>1466.252216095297</v>
       </c>
       <c r="F101">
-        <v>7049.728784979537</v>
+        <v>7049.62362937426</v>
       </c>
       <c r="G101">
-        <v>2269.804931632629</v>
+        <v>2269.795864266044</v>
       </c>
       <c r="H101">
-        <v>3200.275033299331</v>
+        <v>3200.166672333747</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -13316,25 +13316,25 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>9836.127343037751</v>
+        <v>9836.115119958989</v>
       </c>
       <c r="C102">
-        <v>8705.583958533214</v>
+        <v>8705.568597723937</v>
       </c>
       <c r="D102">
-        <v>2178.45547561365</v>
+        <v>2178.366166531919</v>
       </c>
       <c r="E102">
-        <v>1421.31443028158</v>
+        <v>1421.152961348188</v>
       </c>
       <c r="F102">
-        <v>6903.659644791224</v>
+        <v>6903.494925639323</v>
       </c>
       <c r="G102">
-        <v>2232.729581904315</v>
+        <v>2232.716722136293</v>
       </c>
       <c r="H102">
-        <v>3123.365916224319</v>
+        <v>3123.195938380969</v>
       </c>
     </row>
   </sheetData>
@@ -15744,25 +15744,25 @@
         <v>2041</v>
       </c>
       <c r="B93">
-        <v>497317.7535490713</v>
+        <v>497317.3598251129</v>
       </c>
       <c r="C93">
-        <v>312796.9950665904</v>
+        <v>312796.676625198</v>
       </c>
       <c r="D93">
-        <v>42690.27733015804</v>
+        <v>42690.12909178976</v>
       </c>
       <c r="E93">
-        <v>25469.48580933569</v>
+        <v>25469.33721654254</v>
       </c>
       <c r="F93">
-        <v>115324.6210112879</v>
+        <v>115324.0092476962</v>
       </c>
       <c r="G93">
-        <v>71437.5918932085</v>
+        <v>71437.46184476343</v>
       </c>
       <c r="H93">
-        <v>42971.39809528195</v>
+        <v>42971.09453135153</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -15770,25 +15770,25 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>497737.5867410675</v>
+        <v>497736.4056366039</v>
       </c>
       <c r="C94">
-        <v>309887.9189981796</v>
+        <v>309886.9637201893</v>
       </c>
       <c r="D94">
-        <v>41865.30558411994</v>
+        <v>41864.86140616698</v>
       </c>
       <c r="E94">
-        <v>24812.03878114493</v>
+        <v>24811.5945832346</v>
       </c>
       <c r="F94">
-        <v>113481.2009493907</v>
+        <v>113479.3657672045</v>
       </c>
       <c r="G94">
-        <v>70131.53015330172</v>
+        <v>70131.14005522801</v>
       </c>
       <c r="H94">
-        <v>42046.52500650904</v>
+        <v>42045.6144099205</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -15796,25 +15796,25 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>498126.134079698</v>
+        <v>498123.7720834267</v>
       </c>
       <c r="C95">
-        <v>306960.9865846479</v>
+        <v>306959.0762035045</v>
       </c>
       <c r="D95">
-        <v>41057.20221030575</v>
+        <v>41056.31549836275</v>
       </c>
       <c r="E95">
-        <v>24163.20112315569</v>
+        <v>24162.31691060667</v>
       </c>
       <c r="F95">
-        <v>111625.6831238184</v>
+        <v>111622.0134363994</v>
       </c>
       <c r="G95">
-        <v>68817.83718781997</v>
+        <v>68817.05715861822</v>
       </c>
       <c r="H95">
-        <v>41133.98356791394</v>
+        <v>41132.16300581227</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -15822,25 +15822,25 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>498468.2543322635</v>
+        <v>498464.3181571633</v>
       </c>
       <c r="C96">
-        <v>304012.9341743961</v>
+        <v>304009.7506561424</v>
       </c>
       <c r="D96">
-        <v>40261.59220433213</v>
+        <v>40260.1180384305</v>
       </c>
       <c r="E96">
-        <v>23519.51198731816</v>
+        <v>23518.04678223038</v>
       </c>
       <c r="F96">
-        <v>109747.430092187</v>
+        <v>109741.31629925</v>
       </c>
       <c r="G96">
-        <v>67495.48818215218</v>
+        <v>67494.18854574216</v>
       </c>
       <c r="H96">
-        <v>40221.38696983698</v>
+        <v>40218.35497344724</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -15848,25 +15848,25 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>498748.2768146573</v>
+        <v>498742.3734757479</v>
       </c>
       <c r="C97">
-        <v>301039.5567199952</v>
+        <v>301034.7823827706</v>
       </c>
       <c r="D97">
-        <v>39473.74410696136</v>
+        <v>39471.5397937203</v>
       </c>
       <c r="E97">
-        <v>22877.21757231708</v>
+        <v>22875.03451345821</v>
       </c>
       <c r="F97">
-        <v>107832.5002103664</v>
+        <v>107823.3356334131</v>
       </c>
       <c r="G97">
-        <v>66163.1165625008</v>
+        <v>66161.16794325459</v>
       </c>
       <c r="H97">
-        <v>39296.91187676167</v>
+        <v>39292.36994351529</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -15874,25 +15874,25 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>498949.7644118335</v>
+        <v>498941.5013017611</v>
       </c>
       <c r="C98">
-        <v>298035.5367662265</v>
+        <v>298028.8544118501</v>
       </c>
       <c r="D98">
-        <v>38688.55717254317</v>
+        <v>38685.4827720785</v>
       </c>
       <c r="E98">
-        <v>22232.26988564588</v>
+        <v>22229.23679030703</v>
       </c>
       <c r="F98">
-        <v>105863.9036117653</v>
+        <v>105851.0864759961</v>
       </c>
       <c r="G98">
-        <v>64818.97614348518</v>
+        <v>64816.24956826329</v>
       </c>
       <c r="H98">
-        <v>38349.28853590732</v>
+        <v>38342.94324433874</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -15900,25 +15900,25 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>499055.2076195212</v>
+        <v>499044.1925812539</v>
       </c>
       <c r="C99">
-        <v>294994.2365490978</v>
+        <v>294985.3296039973</v>
       </c>
       <c r="D99">
-        <v>37900.53728624945</v>
+        <v>37896.45610570796</v>
       </c>
       <c r="E99">
-        <v>21580.31463581706</v>
+        <v>21576.30445036642</v>
       </c>
       <c r="F99">
-        <v>103821.9506668939</v>
+        <v>103804.8866279261</v>
       </c>
       <c r="G99">
-        <v>63460.89613301924</v>
+        <v>63457.26313847108</v>
       </c>
       <c r="H99">
-        <v>37367.75437243762</v>
+        <v>37359.32009057605</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -15926,25 +15926,25 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>499045.6794775916</v>
+        <v>499031.5208743774</v>
       </c>
       <c r="C100">
-        <v>291907.4676313673</v>
+        <v>291896.0202951626</v>
       </c>
       <c r="D100">
-        <v>37103.76253846468</v>
+        <v>37098.54158558831</v>
       </c>
       <c r="E100">
-        <v>20916.66761843226</v>
+        <v>20911.55876664931</v>
       </c>
       <c r="F100">
-        <v>101684.6024672539</v>
+        <v>101662.7076482532</v>
       </c>
       <c r="G100">
-        <v>62086.22871588191</v>
+        <v>62081.56145981749</v>
       </c>
       <c r="H100">
-        <v>36341.8981745892</v>
+        <v>36331.10027100819</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -15952,25 +15952,25 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>498900.4670218595</v>
+        <v>498882.773803166</v>
       </c>
       <c r="C101">
-        <v>288765.2445883655</v>
+        <v>288750.9419874851</v>
       </c>
       <c r="D101">
-        <v>36291.83780224457</v>
+        <v>36285.34819295475</v>
       </c>
       <c r="E101">
-        <v>20236.27812700143</v>
+        <v>20229.95476362424</v>
       </c>
       <c r="F101">
-        <v>99427.7445600405</v>
+        <v>99400.44902442647</v>
       </c>
       <c r="G101">
-        <v>60691.78805497361</v>
+        <v>60685.95943029259</v>
       </c>
       <c r="H101">
-        <v>35261.36837974282</v>
+        <v>35247.94676180625</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -15978,25 +15978,25 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>498596.6833478557</v>
+        <v>498575.0651126572</v>
       </c>
       <c r="C102">
-        <v>285555.5225877358</v>
+        <v>285538.0509337404</v>
       </c>
       <c r="D102">
-        <v>35457.83615751636</v>
+        <v>35449.95347362545</v>
       </c>
       <c r="E102">
-        <v>19533.67702900329</v>
+        <v>19526.02920662801</v>
       </c>
       <c r="F102">
-        <v>97025.31361273925</v>
+        <v>96992.06516036059</v>
       </c>
       <c r="G102">
-        <v>59273.77855967374</v>
+        <v>59266.66231030987</v>
       </c>
       <c r="H102">
-        <v>34115.46910905525</v>
+        <v>34099.18182965767</v>
       </c>
     </row>
   </sheetData>
@@ -17305,7 +17305,7 @@
         <v>21669.20856097189</v>
       </c>
       <c r="C93">
-        <v>4522.609134626425</v>
+        <v>4522.168414024214</v>
       </c>
       <c r="D93">
         <v>905.5199816872005</v>
@@ -17316,10 +17316,10 @@
         <v>2042</v>
       </c>
       <c r="B94">
-        <v>21727.18777421021</v>
+        <v>21727.18614835156</v>
       </c>
       <c r="C94">
-        <v>4409.99409910207</v>
+        <v>4409.112657923182</v>
       </c>
       <c r="D94">
         <v>903.6157658507354</v>
@@ -17330,10 +17330,10 @@
         <v>2043</v>
       </c>
       <c r="B95">
-        <v>21772.58517435099</v>
+        <v>21772.57840349066</v>
       </c>
       <c r="C95">
-        <v>4288.729811697546</v>
+        <v>4287.40764991645</v>
       </c>
       <c r="D95">
         <v>900.9773754798171</v>
@@ -17344,10 +17344,10 @@
         <v>2044</v>
       </c>
       <c r="B96">
-        <v>21806.54978019002</v>
+        <v>21806.53182307477</v>
       </c>
       <c r="C96">
-        <v>4158.136848579868</v>
+        <v>4156.373966222095</v>
       </c>
       <c r="D96">
         <v>897.6210098019856</v>
@@ -17358,10 +17358,10 @@
         <v>2045</v>
       </c>
       <c r="B97">
-        <v>21830.10084471999</v>
+        <v>21830.06235498623</v>
       </c>
       <c r="C97">
-        <v>4017.428408519131</v>
+        <v>4015.224805559146</v>
       </c>
       <c r="D97">
         <v>893.5545667808751</v>
@@ -17372,10 +17372,10 @@
         <v>2046</v>
       </c>
       <c r="B98">
-        <v>21843.90076911877</v>
+        <v>21843.82821301011</v>
       </c>
       <c r="C98">
-        <v>3865.679300269018</v>
+        <v>3863.034976706823</v>
       </c>
       <c r="D98">
         <v>888.7688041186157</v>
@@ -17386,10 +17386,10 @@
         <v>2047</v>
       </c>
       <c r="B99">
-        <v>21848.14423483608</v>
+        <v>21848.01896789779</v>
       </c>
       <c r="C99">
-        <v>3701.796718902919</v>
+        <v>3698.711674661913</v>
       </c>
       <c r="D99">
         <v>883.2324996525837</v>
@@ -17400,10 +17400,10 @@
         <v>2048</v>
       </c>
       <c r="B100">
-        <v>21842.55339660632</v>
+        <v>21842.35077418241</v>
       </c>
       <c r="C100">
-        <v>3524.491739092047</v>
+        <v>3520.965974427566</v>
       </c>
       <c r="D100">
         <v>876.8913086713027</v>
@@ -17414,10 +17414,10 @@
         <v>2049</v>
       </c>
       <c r="B101">
-        <v>21826.44575050889</v>
+        <v>21826.13436515143</v>
       </c>
       <c r="C101">
-        <v>3332.247870171305</v>
+        <v>3328.281384828013</v>
       </c>
       <c r="D101">
         <v>869.6689065985423</v>
@@ -17428,10 +17428,10 @@
         <v>2050</v>
       </c>
       <c r="B102">
-        <v>21798.83470739198</v>
+        <v>21798.37585885028</v>
       </c>
       <c r="C102">
-        <v>3123.28283866368</v>
+        <v>3118.875632641576</v>
       </c>
       <c r="D102">
         <v>861.4693751865883</v>
